--- a/Document/爱才数据表设计.xlsx
+++ b/Document/爱才数据表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="company" sheetId="4" r:id="rId3"/>
     <sheet name="offer" sheetId="5" r:id="rId4"/>
     <sheet name="cvlist" sheetId="6" r:id="rId5"/>
+    <sheet name="cvupload" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="178">
   <si>
     <t>tableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,14 +646,103 @@
   </si>
   <si>
     <t>竞拍成功时回写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历上传表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cvupload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历上传路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历状态 
+00-未处理
+01-已分配
+02-审核通过
+03-审核不通过
+06-已删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatedate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录分配人姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,17 +861,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -855,6 +959,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -889,6 +994,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1064,14 +1170,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="11" bestFit="1" customWidth="1"/>
@@ -1083,7 +1189,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1103,13 +1209,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25">
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1251,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1168,7 +1274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1188,7 +1294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1211,7 +1317,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1231,7 +1337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1251,7 +1357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1271,7 +1377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1291,7 +1397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1305,7 +1411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1322,7 +1428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1339,7 +1445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1359,7 +1465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1379,7 +1485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1399,7 +1505,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1419,7 +1525,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1439,7 +1545,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -1453,7 +1559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -1470,7 +1576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1484,7 +1590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -1498,7 +1604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1515,7 +1621,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1541,7 +1647,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
         <v>83</v>
       </c>
@@ -1563,20 +1669,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1597,12 +1703,12 @@
       </c>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25">
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1638,7 +1744,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1661,7 +1767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1681,7 +1787,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1701,7 +1807,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1723,14 +1829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="11"/>
@@ -1741,7 +1847,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1761,13 +1867,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25">
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1803,7 +1909,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1826,7 +1932,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1849,7 +1955,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1869,7 +1975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1886,7 +1992,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1903,7 +2009,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1923,7 +2029,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1943,7 +2049,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1960,7 +2066,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1977,7 +2083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1994,7 +2100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2020,7 +2126,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2043,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2066,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2089,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2103,7 +2209,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2117,7 +2223,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2144,14 +2250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="4" width="9" style="11"/>
@@ -2161,7 +2267,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2181,13 +2287,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25">
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2223,7 +2329,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2249,7 +2355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2269,7 +2375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2289,7 +2395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2306,7 +2412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2323,7 +2429,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2340,7 +2446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2361,14 +2467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="4" width="9" style="11"/>
@@ -2377,7 +2483,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2397,13 +2503,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25">
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2439,7 +2545,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2462,7 +2568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2482,7 +2588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2499,7 +2605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2516,7 +2622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2533,7 +2639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2556,7 +2662,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2579,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2606,4 +2712,229 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="11"/>
+    <col min="3" max="3" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="11"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="13"/>
+    <col min="8" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="14.375" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="2">
+        <v>200</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="2">
+        <v>200</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/爱才数据表设计.xlsx
+++ b/Document/爱才数据表设计.xlsx
@@ -4,22 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="2" r:id="rId1"/>
-    <sheet name="attach" sheetId="3" r:id="rId2"/>
-    <sheet name="company" sheetId="4" r:id="rId3"/>
-    <sheet name="offer" sheetId="5" r:id="rId4"/>
-    <sheet name="cvlist" sheetId="6" r:id="rId5"/>
-    <sheet name="cvupload" sheetId="7" r:id="rId6"/>
+    <sheet name="manager" sheetId="2" r:id="rId1"/>
+    <sheet name="offer" sheetId="5" r:id="rId2"/>
+    <sheet name="cvlist" sheetId="6" r:id="rId3"/>
+    <sheet name="cvupload" sheetId="7" r:id="rId4"/>
+    <sheet name="access" sheetId="8" r:id="rId5"/>
+    <sheet name="node" sheetId="9" r:id="rId6"/>
+    <sheet name="group" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="190">
   <si>
     <t>tableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attachpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attachid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,38 +304,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简历附件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简历主键id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>简历名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简历展示名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>refuseemail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附件路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>usertype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简历存储路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,14 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>companyid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,170 +344,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>企业邮箱，用于登录名，必填，会发送激活邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passowrd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总部位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-国营 2-民营 3-外资独资（欧美） 4-外资独资（非欧美） 5-合资（欧美） 6-合资（非欧美）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司规模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典，参考51job， 1：20人以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contackname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobilephone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人座机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isfinishinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经完善基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：未完善 1:已完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resumenum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到简历数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offernum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发出offer数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>successnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功推荐数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updatedate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于确认收到什么样的推荐邮件，为空则不限，可以收到所有推荐的求职者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>offer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,10 +465,6 @@
   </si>
   <si>
     <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简历上传路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -718,23 +521,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>updatedate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录分配人姓名</t>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assigndate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operadate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignerid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignername</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operatorid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operatorname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限节点id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限层级 1-应用 2-模块 3-操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-禁用 1-正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-项目 2-模块 3-操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-禁用 1-启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-不展示 1-展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问节点表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,12 +902,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1180,12 +1225,12 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="9" style="11"/>
+    <col min="11" max="11" width="9" style="9"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1255,13 +1300,13 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2">
@@ -1278,13 +1323,13 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2">
@@ -1298,13 +1343,13 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2">
@@ -1313,21 +1358,21 @@
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>81</v>
+      <c r="K6" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2">
@@ -1341,13 +1386,13 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2">
@@ -1361,19 +1406,19 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>100</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1381,19 +1426,19 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1401,13 +1446,13 @@
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1415,13 +1460,13 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2">
@@ -1432,13 +1477,13 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2">
@@ -1449,19 +1494,19 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1469,19 +1514,19 @@
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1489,19 +1534,19 @@
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1509,19 +1554,19 @@
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1529,19 +1574,19 @@
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="2">
         <v>500</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1549,13 +1594,13 @@
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1563,16 +1608,16 @@
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1580,13 +1625,13 @@
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1594,13 +1639,13 @@
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1608,30 +1653,30 @@
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="2">
@@ -1643,22 +1688,22 @@
       <c r="G24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="11" t="s">
-        <v>70</v>
+      <c r="K24" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="B25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>85</v>
+      <c r="K25" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1670,180 +1715,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>200</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9" style="11"/>
-    <col min="3" max="3" width="17.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="11"/>
-    <col min="5" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="9" style="11"/>
+    <col min="2" max="4" width="9" style="9"/>
+    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="9" style="9"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1858,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1913,334 +1797,131 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>90</v>
+      <c r="B4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>94</v>
+      <c r="B5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>94</v>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>94</v>
+      <c r="B7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E7" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>94</v>
+      <c r="B8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>90</v>
+      <c r="B9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="2">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="2">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="2">
-        <v>500</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>130</v>
+      <c r="D10" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2249,224 +1930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="4" width="9" style="11"/>
-    <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="9" style="11"/>
-    <col min="12" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -2477,9 +1941,9 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="4" width="9" style="11"/>
+    <col min="2" max="4" width="9" style="9"/>
     <col min="5" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="9" style="11"/>
+    <col min="11" max="11" width="9" style="9"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2494,13 +1958,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2549,13 +2013,13 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2">
@@ -2572,13 +2036,13 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="2">
@@ -2592,13 +2056,13 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -2609,13 +2073,13 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2626,13 +2090,13 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -2643,13 +2107,13 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2">
@@ -2658,21 +2122,21 @@
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>152</v>
+      <c r="K9" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2">
@@ -2689,13 +2153,13 @@
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="2">
@@ -2704,8 +2168,498 @@
       <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>156</v>
+      <c r="K11" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="11"/>
+    <col min="8" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="14.375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="2">
+        <v>200</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="2">
+        <v>200</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="11"/>
+    <col min="8" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="31.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2716,22 +2670,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9" style="11"/>
-    <col min="3" max="3" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="11"/>
+    <col min="2" max="2" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="9" style="13"/>
+    <col min="7" max="7" width="9" style="11"/>
     <col min="8" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="14.375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="9" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2746,15 +2700,15 @@
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="12"/>
+        <v>187</v>
+      </c>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
@@ -2802,22 +2756,19 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>19</v>
+      <c r="B4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2825,116 +2776,787 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>161</v>
+      <c r="B5" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="E5" s="2">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>166</v>
+      <c r="D6" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="E6" s="2">
         <v>200</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="D9" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="D11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="11" t="s">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="2">
-        <v>200</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>177</v>
+      <c r="E13" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="11"/>
+    <col min="8" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="14.375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="11"/>
+    <col min="8" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="14.375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="11"/>
+    <col min="8" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="14.375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/爱才数据表设计.xlsx
+++ b/Document/爱才数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="manager" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="access" sheetId="8" r:id="rId5"/>
     <sheet name="node" sheetId="9" r:id="rId6"/>
     <sheet name="group" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="11" r:id="rId8"/>
+    <sheet name="user" sheetId="11" r:id="rId8"/>
     <sheet name="Sheet5" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="211">
   <si>
     <t>tableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -786,6 +786,90 @@
   </si>
   <si>
     <t>分组表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00-禁用 01-启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2944,7 +3028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3187,10 +3271,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3217,13 +3301,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -3274,19 +3358,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -3294,16 +3381,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="E5" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>80</v>
@@ -3314,16 +3401,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>80</v>
@@ -3334,19 +3421,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K7" s="12"/>
     </row>
@@ -3355,16 +3439,53 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>148</v>
       </c>
       <c r="E8" s="2">
-        <v>50</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
